--- a/LM result for all covaraites.xlsx
+++ b/LM result for all covaraites.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2019\biostat625\final project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2019\biostat625\package\helloworld\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22932" windowHeight="9240"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,35 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="192">
-  <si>
-    <t>Large</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>regression</t>
-  </si>
-  <si>
-    <t>model:</t>
-  </si>
-  <si>
-    <t>biglm(formula</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
   <si>
     <t>=</t>
   </si>
   <si>
-    <t>formula,</t>
-  </si>
-  <si>
-    <t>data,</t>
-  </si>
-  <si>
-    <t>...)</t>
-  </si>
-  <si>
     <t>Sample</t>
   </si>
   <si>
@@ -77,18 +53,12 @@
     <t>(Intercept)</t>
   </si>
   <si>
-    <t>Year</t>
-  </si>
-  <si>
     <t>Month</t>
   </si>
   <si>
     <t>DayofMonth</t>
   </si>
   <si>
-    <t>DayOfWeek</t>
-  </si>
-  <si>
     <t>Distance</t>
   </si>
   <si>
@@ -557,42 +527,6 @@
     <t>DestTPA</t>
   </si>
   <si>
-    <t>Fog.x</t>
-  </si>
-  <si>
-    <t>Rain.x</t>
-  </si>
-  <si>
-    <t>Snow.x</t>
-  </si>
-  <si>
-    <t>Hail.x</t>
-  </si>
-  <si>
-    <t>Thunder.x</t>
-  </si>
-  <si>
-    <t>Tornado.x</t>
-  </si>
-  <si>
-    <t>Fog.y</t>
-  </si>
-  <si>
-    <t>Rain.y</t>
-  </si>
-  <si>
-    <t>Snow.y</t>
-  </si>
-  <si>
-    <t>Hail.y</t>
-  </si>
-  <si>
-    <t>Thunder.y</t>
-  </si>
-  <si>
-    <t>Tornado.y</t>
-  </si>
-  <si>
     <t>seasonspring</t>
   </si>
   <si>
@@ -600,6 +534,81 @@
   </si>
   <si>
     <t>seasonwinter</t>
+  </si>
+  <si>
+    <t>Year2002</t>
+  </si>
+  <si>
+    <t>Year2003</t>
+  </si>
+  <si>
+    <t>Year2004</t>
+  </si>
+  <si>
+    <t>Year2005</t>
+  </si>
+  <si>
+    <t>Year2006</t>
+  </si>
+  <si>
+    <t>Year2007</t>
+  </si>
+  <si>
+    <t>Year2008</t>
+  </si>
+  <si>
+    <t>DayOfWeek2</t>
+  </si>
+  <si>
+    <t>DayOfWeek3</t>
+  </si>
+  <si>
+    <t>DayOfWeek4</t>
+  </si>
+  <si>
+    <t>DayOfWeek5</t>
+  </si>
+  <si>
+    <t>DayOfWeek6</t>
+  </si>
+  <si>
+    <t>DayOfWeek7</t>
+  </si>
+  <si>
+    <t>Fog.x1</t>
+  </si>
+  <si>
+    <t>Rain.x1</t>
+  </si>
+  <si>
+    <t>Snow.x1</t>
+  </si>
+  <si>
+    <t>Hail.x1</t>
+  </si>
+  <si>
+    <t>Thunder.x1</t>
+  </si>
+  <si>
+    <t>Tornado.x1</t>
+  </si>
+  <si>
+    <t>Fog.y1</t>
+  </si>
+  <si>
+    <t>Rain.y1</t>
+  </si>
+  <si>
+    <t>Snow.y1</t>
+  </si>
+  <si>
+    <t>Hail.y1</t>
+  </si>
+  <si>
+    <t>Thunder.y1</t>
+  </si>
+  <si>
+    <t>Tornado.y1</t>
   </si>
 </sst>
 </file>
@@ -918,335 +927,320 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K179"/>
+  <dimension ref="A1:F189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="C165" sqref="C165"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>29328678</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
+      <c r="B3">
+        <v>26.911200000000001</v>
+      </c>
+      <c r="C3">
+        <v>24.166899999999998</v>
+      </c>
+      <c r="D3">
+        <v>29.6554</v>
+      </c>
+      <c r="E3">
+        <v>1.3721000000000001</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4">
+        <v>-2.9842</v>
+      </c>
+      <c r="C4">
+        <v>-3.0331000000000001</v>
+      </c>
+      <c r="D4">
+        <v>-2.9352999999999998</v>
+      </c>
+      <c r="E4">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5">
+        <v>-3.9024999999999999</v>
+      </c>
+      <c r="C5">
+        <v>-3.9508000000000001</v>
+      </c>
+      <c r="D5">
+        <v>-3.8542999999999998</v>
+      </c>
+      <c r="E5">
+        <v>2.41E-2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6">
+        <v>-1.2591000000000001</v>
+      </c>
+      <c r="C6">
+        <v>-1.3059000000000001</v>
+      </c>
+      <c r="D6">
+        <v>-1.2122999999999999</v>
+      </c>
+      <c r="E6">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7">
+        <v>0.1079</v>
+      </c>
+      <c r="C7">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.1573</v>
+      </c>
+      <c r="E7">
+        <v>2.47E-2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8">
+        <v>1.5461</v>
+      </c>
+      <c r="C8">
+        <v>1.4961</v>
+      </c>
+      <c r="D8">
+        <v>1.5962000000000001</v>
+      </c>
+      <c r="E8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9">
+        <v>2.9190999999999998</v>
+      </c>
+      <c r="C9">
+        <v>2.8693</v>
+      </c>
+      <c r="D9">
+        <v>2.9689000000000001</v>
+      </c>
+      <c r="E9">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10">
+        <v>1.4410000000000001</v>
+      </c>
+      <c r="C10">
+        <v>1.3904000000000001</v>
+      </c>
+      <c r="D10">
+        <v>1.4915</v>
+      </c>
+      <c r="E10">
+        <v>2.53E-2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B11">
+        <v>-0.12970000000000001</v>
+      </c>
+      <c r="C11">
+        <v>-0.14460000000000001</v>
+      </c>
+      <c r="D11">
+        <v>-0.1148</v>
+      </c>
+      <c r="E11">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>29328678</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>-1257.8696</v>
-      </c>
-      <c r="C4">
-        <v>-1270.5417</v>
-      </c>
-      <c r="D4">
-        <v>-1245.1976</v>
-      </c>
-      <c r="E4">
-        <v>6.3360000000000003</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>0.63390000000000002</v>
-      </c>
-      <c r="C5">
-        <v>0.62780000000000002</v>
-      </c>
-      <c r="D5">
-        <v>0.64</v>
-      </c>
-      <c r="E5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>-0.13600000000000001</v>
-      </c>
-      <c r="C6">
-        <v>-0.15090000000000001</v>
-      </c>
-      <c r="D6">
-        <v>-0.1211</v>
-      </c>
-      <c r="E6">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>1.0699999999999999E-2</v>
-      </c>
-      <c r="C7">
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="D7">
-        <v>1.2E-2</v>
-      </c>
-      <c r="E7">
+      <c r="B12">
+        <v>1.09E-2</v>
+      </c>
+      <c r="C12">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="D12">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="E12">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="C8">
-        <v>0.17030000000000001</v>
-      </c>
-      <c r="D8">
-        <v>0.18160000000000001</v>
-      </c>
-      <c r="E8">
-        <v>2.8E-3</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="C9">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D9">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10">
-        <v>2.1399999999999999E-2</v>
-      </c>
-      <c r="C10">
-        <v>2.0799999999999999E-2</v>
-      </c>
-      <c r="D10">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="E10">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11">
-        <v>0.17369999999999999</v>
-      </c>
-      <c r="C11">
-        <v>0.17269999999999999</v>
-      </c>
-      <c r="D11">
-        <v>0.17480000000000001</v>
-      </c>
-      <c r="E11">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12">
-        <v>-2.3999999999999998E-3</v>
-      </c>
-      <c r="C12">
-        <v>-4.5999999999999999E-3</v>
-      </c>
-      <c r="D12">
-        <v>-2.0000000000000001E-4</v>
-      </c>
-      <c r="E12">
-        <v>1.1000000000000001E-3</v>
-      </c>
       <c r="F12">
-        <v>2.5899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="B13">
-        <v>5.4100000000000002E-2</v>
+        <v>-2.1852</v>
       </c>
       <c r="C13">
-        <v>5.21E-2</v>
+        <v>-2.2267000000000001</v>
       </c>
       <c r="D13">
-        <v>5.6099999999999997E-2</v>
+        <v>-2.1438000000000001</v>
       </c>
       <c r="E13">
-        <v>1E-3</v>
+        <v>2.07E-2</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>178</v>
       </c>
       <c r="B14">
-        <v>2.7000000000000001E-3</v>
+        <v>-1.7130000000000001</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>-1.7544</v>
       </c>
       <c r="D14">
-        <v>5.3E-3</v>
+        <v>-1.6716</v>
       </c>
       <c r="E14">
-        <v>1.2999999999999999E-3</v>
+        <v>2.07E-2</v>
       </c>
       <c r="F14">
-        <v>4.1599999999999998E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="B15">
-        <v>-1.0799000000000001</v>
+        <v>0.25090000000000001</v>
       </c>
       <c r="C15">
-        <v>-1.0902000000000001</v>
+        <v>0.20960000000000001</v>
       </c>
       <c r="D15">
-        <v>-1.0696000000000001</v>
+        <v>0.2923</v>
       </c>
       <c r="E15">
-        <v>5.1999999999999998E-3</v>
+        <v>2.07E-2</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="B16">
-        <v>3.2199999999999999E-2</v>
+        <v>1.2104999999999999</v>
       </c>
       <c r="C16">
-        <v>2.58E-2</v>
+        <v>1.1691</v>
       </c>
       <c r="D16">
-        <v>3.8600000000000002E-2</v>
+        <v>1.2518</v>
       </c>
       <c r="E16">
-        <v>3.2000000000000002E-3</v>
+        <v>2.07E-2</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1254,19 +1248,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>181</v>
       </c>
       <c r="B17">
-        <v>0.22270000000000001</v>
+        <v>-2.1227</v>
       </c>
       <c r="C17">
-        <v>0.21870000000000001</v>
+        <v>-2.1657999999999999</v>
       </c>
       <c r="D17">
-        <v>0.2268</v>
+        <v>-2.0796000000000001</v>
       </c>
       <c r="E17">
-        <v>2E-3</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1274,19 +1268,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>182</v>
       </c>
       <c r="B18">
-        <v>0.8931</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="C18">
-        <v>0.85519999999999996</v>
+        <v>0.41909999999999997</v>
       </c>
       <c r="D18">
-        <v>0.93100000000000005</v>
+        <v>0.50290000000000001</v>
       </c>
       <c r="E18">
-        <v>1.9E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1294,19 +1288,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B19">
-        <v>0.58799999999999997</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="C19">
-        <v>0.57399999999999995</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="D19">
-        <v>0.60209999999999997</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="E19">
-        <v>7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1314,39 +1308,39 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B20">
-        <v>-3.2000000000000002E-3</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="C20">
-        <v>-5.4000000000000003E-3</v>
+        <v>2.07E-2</v>
       </c>
       <c r="D20">
-        <v>-1.1000000000000001E-3</v>
+        <v>2.1899999999999999E-2</v>
       </c>
       <c r="E20">
-        <v>1.1000000000000001E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="F20">
-        <v>2.8999999999999998E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B21">
-        <v>4.87E-2</v>
+        <v>0.1681</v>
       </c>
       <c r="C21">
-        <v>4.6699999999999998E-2</v>
+        <v>0.1671</v>
       </c>
       <c r="D21">
-        <v>5.0700000000000002E-2</v>
+        <v>0.16919999999999999</v>
       </c>
       <c r="E21">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1354,39 +1348,39 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>-5.1999999999999998E-3</v>
+        <v>-1.2999999999999999E-2</v>
       </c>
       <c r="C22">
-        <v>-7.7999999999999996E-3</v>
+        <v>-1.5100000000000001E-2</v>
       </c>
       <c r="D22">
-        <v>-2.5999999999999999E-3</v>
+        <v>-1.0800000000000001E-2</v>
       </c>
       <c r="E22">
-        <v>1.2999999999999999E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F22">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B23">
-        <v>-1.0327</v>
+        <v>6.1600000000000002E-2</v>
       </c>
       <c r="C23">
-        <v>-1.0429999999999999</v>
+        <v>5.96E-2</v>
       </c>
       <c r="D23">
-        <v>-1.0224</v>
+        <v>6.3500000000000001E-2</v>
       </c>
       <c r="E23">
-        <v>5.1999999999999998E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1394,39 +1388,39 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B24">
-        <v>6.3299999999999995E-2</v>
+        <v>-3.8E-3</v>
       </c>
       <c r="C24">
-        <v>5.6899999999999999E-2</v>
+        <v>-6.4000000000000003E-3</v>
       </c>
       <c r="D24">
-        <v>6.9699999999999998E-2</v>
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="E24">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="F24">
         <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B25">
-        <v>0.14080000000000001</v>
+        <v>-1.0202</v>
       </c>
       <c r="C25">
-        <v>0.13669999999999999</v>
+        <v>-1.0305</v>
       </c>
       <c r="D25">
-        <v>0.14480000000000001</v>
+        <v>-1.0099</v>
       </c>
       <c r="E25">
-        <v>2E-3</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1434,19 +1428,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B26">
-        <v>0.64870000000000005</v>
+        <v>3.44E-2</v>
       </c>
       <c r="C26">
-        <v>0.6109</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D26">
-        <v>0.68659999999999999</v>
+        <v>4.0800000000000003E-2</v>
       </c>
       <c r="E26">
-        <v>1.89E-2</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1454,19 +1448,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B27">
-        <v>0.36109999999999998</v>
+        <v>0.2198</v>
       </c>
       <c r="C27">
-        <v>0.34710000000000002</v>
+        <v>0.21579999999999999</v>
       </c>
       <c r="D27">
-        <v>0.375</v>
+        <v>0.22389999999999999</v>
       </c>
       <c r="E27">
-        <v>7.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1474,19 +1468,19 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B28">
-        <v>0.65790000000000004</v>
+        <v>0.88019999999999998</v>
       </c>
       <c r="C28">
-        <v>0.43099999999999999</v>
+        <v>0.84230000000000005</v>
       </c>
       <c r="D28">
-        <v>0.88480000000000003</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="E28">
-        <v>0.1134</v>
+        <v>1.89E-2</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1494,19 +1488,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B29">
-        <v>0.88539999999999996</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="C29">
-        <v>0.48099999999999998</v>
+        <v>0.52339999999999998</v>
       </c>
       <c r="D29">
-        <v>1.2897000000000001</v>
+        <v>0.55149999999999999</v>
       </c>
       <c r="E29">
-        <v>0.20219999999999999</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1514,19 +1508,19 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B30">
-        <v>2.3115000000000001</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="C30">
-        <v>2.0699000000000001</v>
+        <v>-1.61E-2</v>
       </c>
       <c r="D30">
-        <v>2.5531000000000001</v>
+        <v>-1.18E-2</v>
       </c>
       <c r="E30">
-        <v>0.1208</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1534,19 +1528,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B31">
-        <v>1.2976000000000001</v>
+        <v>5.6099999999999997E-2</v>
       </c>
       <c r="C31">
-        <v>1.05</v>
+        <v>5.4199999999999998E-2</v>
       </c>
       <c r="D31">
-        <v>1.5452999999999999</v>
+        <v>5.8099999999999999E-2</v>
       </c>
       <c r="E31">
-        <v>0.12379999999999999</v>
+        <v>1E-3</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1554,19 +1548,19 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B32">
-        <v>-1.4765999999999999</v>
+        <v>-1.17E-2</v>
       </c>
       <c r="C32">
-        <v>-1.7094</v>
+        <v>-1.43E-2</v>
       </c>
       <c r="D32">
-        <v>-1.2439</v>
+        <v>-9.1000000000000004E-3</v>
       </c>
       <c r="E32">
-        <v>0.1164</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1574,19 +1568,19 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B33">
-        <v>2.1619000000000002</v>
+        <v>-0.97209999999999996</v>
       </c>
       <c r="C33">
-        <v>1.9029</v>
+        <v>-0.98250000000000004</v>
       </c>
       <c r="D33">
-        <v>2.4209000000000001</v>
+        <v>-0.96179999999999999</v>
       </c>
       <c r="E33">
-        <v>0.1295</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1594,19 +1588,19 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B34">
-        <v>-1.7043999999999999</v>
+        <v>6.5799999999999997E-2</v>
       </c>
       <c r="C34">
-        <v>-1.9313</v>
+        <v>5.9400000000000001E-2</v>
       </c>
       <c r="D34">
-        <v>-1.4775</v>
+        <v>7.22E-2</v>
       </c>
       <c r="E34">
-        <v>0.1135</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1614,19 +1608,19 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B35">
-        <v>3.8954</v>
+        <v>0.1376</v>
       </c>
       <c r="C35">
-        <v>3.6398999999999999</v>
+        <v>0.13350000000000001</v>
       </c>
       <c r="D35">
-        <v>4.1509</v>
+        <v>0.14169999999999999</v>
       </c>
       <c r="E35">
-        <v>0.12770000000000001</v>
+        <v>2E-3</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1634,19 +1628,19 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B36">
-        <v>-2.2021000000000002</v>
+        <v>0.63719999999999999</v>
       </c>
       <c r="C36">
-        <v>-2.4573</v>
+        <v>0.59940000000000004</v>
       </c>
       <c r="D36">
-        <v>-1.9469000000000001</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="E36">
-        <v>0.12759999999999999</v>
+        <v>1.89E-2</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1654,19 +1648,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B37">
-        <v>0.55179999999999996</v>
+        <v>0.31040000000000001</v>
       </c>
       <c r="C37">
-        <v>0.3165</v>
+        <v>0.2964</v>
       </c>
       <c r="D37">
-        <v>0.78710000000000002</v>
+        <v>0.32429999999999998</v>
       </c>
       <c r="E37">
-        <v>0.1176</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1674,19 +1668,19 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B38">
-        <v>-2.1032000000000002</v>
+        <v>1.0532999999999999</v>
       </c>
       <c r="C38">
-        <v>-2.4344999999999999</v>
+        <v>0.82650000000000001</v>
       </c>
       <c r="D38">
-        <v>-1.7719</v>
+        <v>1.28</v>
       </c>
       <c r="E38">
-        <v>0.16569999999999999</v>
+        <v>0.1134</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1694,39 +1688,39 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B39">
-        <v>1.6951000000000001</v>
+        <v>-0.2233</v>
       </c>
       <c r="C39">
-        <v>1.4578</v>
+        <v>-0.62709999999999999</v>
       </c>
       <c r="D39">
-        <v>1.9323999999999999</v>
+        <v>0.18049999999999999</v>
       </c>
       <c r="E39">
-        <v>0.1186</v>
+        <v>0.2019</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>0.26869999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B40">
-        <v>1.9556</v>
+        <v>2.6812</v>
       </c>
       <c r="C40">
-        <v>1.7263999999999999</v>
+        <v>2.4398</v>
       </c>
       <c r="D40">
-        <v>2.1848999999999998</v>
+        <v>2.9226000000000001</v>
       </c>
       <c r="E40">
-        <v>0.11459999999999999</v>
+        <v>0.1207</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1734,39 +1728,39 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B41">
-        <v>-0.38700000000000001</v>
+        <v>1.5639000000000001</v>
       </c>
       <c r="C41">
-        <v>-0.61040000000000005</v>
+        <v>1.3164</v>
       </c>
       <c r="D41">
-        <v>-0.16370000000000001</v>
+        <v>1.8113999999999999</v>
       </c>
       <c r="E41">
-        <v>0.11169999999999999</v>
+        <v>0.1237</v>
       </c>
       <c r="F41">
-        <v>5.0000000000000001E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B42">
-        <v>2.5666000000000002</v>
+        <v>-1.2798</v>
       </c>
       <c r="C42">
-        <v>2.3292999999999999</v>
+        <v>-1.5123</v>
       </c>
       <c r="D42">
-        <v>2.8039000000000001</v>
+        <v>-1.0471999999999999</v>
       </c>
       <c r="E42">
-        <v>0.1187</v>
+        <v>0.1163</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1774,19 +1768,19 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B43">
-        <v>0.57240000000000002</v>
+        <v>3.6215000000000002</v>
       </c>
       <c r="C43">
-        <v>0.3367</v>
+        <v>3.3620000000000001</v>
       </c>
       <c r="D43">
-        <v>0.80800000000000005</v>
+        <v>3.8809999999999998</v>
       </c>
       <c r="E43">
-        <v>0.1178</v>
+        <v>0.12970000000000001</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1794,19 +1788,19 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B44">
-        <v>2.7911000000000001</v>
+        <v>-1.3752</v>
       </c>
       <c r="C44">
-        <v>2.5148000000000001</v>
+        <v>-1.6020000000000001</v>
       </c>
       <c r="D44">
-        <v>3.0674999999999999</v>
+        <v>-1.1484000000000001</v>
       </c>
       <c r="E44">
-        <v>0.13819999999999999</v>
+        <v>0.1134</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1814,19 +1808,19 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B45">
-        <v>-1.4774</v>
+        <v>4.4432</v>
       </c>
       <c r="C45">
-        <v>-1.7504</v>
+        <v>4.1877000000000004</v>
       </c>
       <c r="D45">
-        <v>-1.2043999999999999</v>
+        <v>4.6986999999999997</v>
       </c>
       <c r="E45">
-        <v>0.13650000000000001</v>
+        <v>0.12770000000000001</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1834,19 +1828,19 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B46">
-        <v>0.48209999999999997</v>
+        <v>-2.2715000000000001</v>
       </c>
       <c r="C46">
-        <v>0.25459999999999999</v>
+        <v>-2.5265</v>
       </c>
       <c r="D46">
-        <v>0.70960000000000001</v>
+        <v>-2.0164</v>
       </c>
       <c r="E46">
-        <v>0.1137</v>
+        <v>0.1275</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1854,39 +1848,39 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B47">
-        <v>-0.2429</v>
+        <v>0.96870000000000001</v>
       </c>
       <c r="C47">
-        <v>-0.47</v>
+        <v>0.73350000000000004</v>
       </c>
       <c r="D47">
-        <v>-1.5699999999999999E-2</v>
+        <v>1.2039</v>
       </c>
       <c r="E47">
-        <v>0.11360000000000001</v>
+        <v>0.1176</v>
       </c>
       <c r="F47">
-        <v>3.2500000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B48">
-        <v>4.4252000000000002</v>
+        <v>-1.8900999999999999</v>
       </c>
       <c r="C48">
-        <v>4.1996000000000002</v>
+        <v>-2.2210999999999999</v>
       </c>
       <c r="D48">
-        <v>4.6508000000000003</v>
+        <v>-1.5591999999999999</v>
       </c>
       <c r="E48">
-        <v>0.1128</v>
+        <v>0.16550000000000001</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1894,39 +1888,39 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B49">
-        <v>2.4199999999999999E-2</v>
+        <v>2.4365999999999999</v>
       </c>
       <c r="C49">
-        <v>-0.2094</v>
+        <v>2.1993</v>
       </c>
       <c r="D49">
-        <v>0.25790000000000002</v>
+        <v>2.6738</v>
       </c>
       <c r="E49">
-        <v>0.1168</v>
+        <v>0.1186</v>
       </c>
       <c r="F49">
-        <v>0.83560000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B50">
-        <v>6.1097000000000001</v>
+        <v>2.3020999999999998</v>
       </c>
       <c r="C50">
-        <v>5.8555999999999999</v>
+        <v>2.0729000000000002</v>
       </c>
       <c r="D50">
-        <v>6.3638000000000003</v>
+        <v>2.5312999999999999</v>
       </c>
       <c r="E50">
-        <v>0.127</v>
+        <v>0.11459999999999999</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1934,39 +1928,39 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B51">
-        <v>1.137</v>
+        <v>-3.9199999999999999E-2</v>
       </c>
       <c r="C51">
-        <v>0.87619999999999998</v>
+        <v>-0.26250000000000001</v>
       </c>
       <c r="D51">
-        <v>1.3976999999999999</v>
+        <v>0.184</v>
       </c>
       <c r="E51">
-        <v>0.13039999999999999</v>
+        <v>0.1116</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>0.72529999999999994</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B52">
-        <v>4.3731999999999998</v>
+        <v>2.7166999999999999</v>
       </c>
       <c r="C52">
-        <v>4.2233999999999998</v>
+        <v>2.4792999999999998</v>
       </c>
       <c r="D52">
-        <v>4.5229999999999997</v>
+        <v>2.9540000000000002</v>
       </c>
       <c r="E52">
-        <v>7.4899999999999994E-2</v>
+        <v>0.1187</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1974,19 +1968,19 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B53">
-        <v>-1.4752000000000001</v>
+        <v>1.0063</v>
       </c>
       <c r="C53">
-        <v>-1.6598999999999999</v>
+        <v>0.77080000000000004</v>
       </c>
       <c r="D53">
-        <v>-1.2905</v>
+        <v>1.2418</v>
       </c>
       <c r="E53">
-        <v>9.2399999999999996E-2</v>
+        <v>0.1178</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -1994,59 +1988,59 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B54">
-        <v>-0.48759999999999998</v>
+        <v>0.2112</v>
       </c>
       <c r="C54">
-        <v>-0.67190000000000005</v>
+        <v>-6.5799999999999997E-2</v>
       </c>
       <c r="D54">
-        <v>-0.30330000000000001</v>
+        <v>0.48830000000000001</v>
       </c>
       <c r="E54">
-        <v>9.2200000000000004E-2</v>
+        <v>0.13850000000000001</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>0.1273</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B55">
-        <v>-0.434</v>
+        <v>-0.12770000000000001</v>
       </c>
       <c r="C55">
-        <v>-0.64859999999999995</v>
+        <v>-0.40100000000000002</v>
       </c>
       <c r="D55">
-        <v>-0.21929999999999999</v>
+        <v>0.14560000000000001</v>
       </c>
       <c r="E55">
-        <v>0.10730000000000001</v>
+        <v>0.13669999999999999</v>
       </c>
       <c r="F55">
-        <v>1E-4</v>
+        <v>0.35020000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B56">
-        <v>0.57720000000000005</v>
+        <v>0.82720000000000005</v>
       </c>
       <c r="C56">
-        <v>0.41060000000000002</v>
+        <v>0.5998</v>
       </c>
       <c r="D56">
-        <v>0.74380000000000002</v>
+        <v>1.0545</v>
       </c>
       <c r="E56">
-        <v>8.3299999999999999E-2</v>
+        <v>0.1137</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2054,39 +2048,39 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B57">
-        <v>0.72389999999999999</v>
+        <v>-0.17449999999999999</v>
       </c>
       <c r="C57">
-        <v>0.57079999999999997</v>
+        <v>-0.40150000000000002</v>
       </c>
       <c r="D57">
-        <v>0.87690000000000001</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="E57">
-        <v>7.6499999999999999E-2</v>
+        <v>0.1135</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>0.1242</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B58">
-        <v>-0.81730000000000003</v>
+        <v>4.7039999999999997</v>
       </c>
       <c r="C58">
-        <v>-1.0178</v>
+        <v>4.4786000000000001</v>
       </c>
       <c r="D58">
-        <v>-0.61680000000000001</v>
+        <v>4.9294000000000002</v>
       </c>
       <c r="E58">
-        <v>0.1003</v>
+        <v>0.11269999999999999</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2094,39 +2088,39 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B59">
-        <v>-0.8085</v>
+        <v>0.41870000000000002</v>
       </c>
       <c r="C59">
-        <v>-1.0206999999999999</v>
+        <v>0.18509999999999999</v>
       </c>
       <c r="D59">
-        <v>-0.59619999999999995</v>
+        <v>0.65239999999999998</v>
       </c>
       <c r="E59">
-        <v>0.1061</v>
+        <v>0.1168</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B60">
-        <v>1.5883</v>
+        <v>5.8921999999999999</v>
       </c>
       <c r="C60">
-        <v>1.4319</v>
+        <v>5.6382000000000003</v>
       </c>
       <c r="D60">
-        <v>1.7446999999999999</v>
+        <v>6.1462000000000003</v>
       </c>
       <c r="E60">
-        <v>7.8200000000000006E-2</v>
+        <v>0.127</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2134,19 +2128,19 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B61">
-        <v>-1.4656</v>
+        <v>0.88870000000000005</v>
       </c>
       <c r="C61">
-        <v>-1.6322000000000001</v>
+        <v>0.62839999999999996</v>
       </c>
       <c r="D61">
-        <v>-1.2989999999999999</v>
+        <v>1.1489</v>
       </c>
       <c r="E61">
-        <v>8.3299999999999999E-2</v>
+        <v>0.13009999999999999</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2154,19 +2148,19 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B62">
-        <v>2.1709000000000001</v>
+        <v>4.2630999999999997</v>
       </c>
       <c r="C62">
-        <v>2.0114999999999998</v>
+        <v>4.1135999999999999</v>
       </c>
       <c r="D62">
-        <v>2.3302</v>
+        <v>4.4126000000000003</v>
       </c>
       <c r="E62">
-        <v>7.9699999999999993E-2</v>
+        <v>7.4800000000000005E-2</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2174,59 +2168,59 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B63">
-        <v>-0.33239999999999997</v>
+        <v>-1.6777</v>
       </c>
       <c r="C63">
-        <v>-0.5121</v>
+        <v>-1.8621000000000001</v>
       </c>
       <c r="D63">
-        <v>-0.1527</v>
+        <v>-1.4933000000000001</v>
       </c>
       <c r="E63">
-        <v>8.9800000000000005E-2</v>
+        <v>9.2200000000000004E-2</v>
       </c>
       <c r="F63">
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B64">
-        <v>0.28949999999999998</v>
+        <v>-0.68120000000000003</v>
       </c>
       <c r="C64">
-        <v>0.12479999999999999</v>
+        <v>-0.86519999999999997</v>
       </c>
       <c r="D64">
-        <v>0.45429999999999998</v>
+        <v>-0.49719999999999998</v>
       </c>
       <c r="E64">
-        <v>8.2400000000000001E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="F64">
-        <v>4.0000000000000002E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B65">
-        <v>-1.6605000000000001</v>
+        <v>-0.5675</v>
       </c>
       <c r="C65">
-        <v>-1.8186</v>
+        <v>-0.78180000000000005</v>
       </c>
       <c r="D65">
-        <v>-1.5024</v>
+        <v>-0.3533</v>
       </c>
       <c r="E65">
-        <v>7.9100000000000004E-2</v>
+        <v>0.1071</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2234,19 +2228,19 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B66">
-        <v>2.1684999999999999</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="C66">
-        <v>2.0200999999999998</v>
+        <v>0.1956</v>
       </c>
       <c r="D66">
-        <v>2.3169</v>
+        <v>0.52829999999999999</v>
       </c>
       <c r="E66">
-        <v>7.4200000000000002E-2</v>
+        <v>8.3199999999999996E-2</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2254,19 +2248,19 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B67">
-        <v>2.1785000000000001</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="C67">
-        <v>2.0295000000000001</v>
+        <v>0.37819999999999998</v>
       </c>
       <c r="D67">
-        <v>2.3275999999999999</v>
+        <v>0.68369999999999997</v>
       </c>
       <c r="E67">
-        <v>7.4499999999999997E-2</v>
+        <v>7.6399999999999996E-2</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2274,19 +2268,19 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B68">
-        <v>1.6639999999999999</v>
+        <v>-1.0063</v>
       </c>
       <c r="C68">
-        <v>1.5052000000000001</v>
+        <v>-1.2063999999999999</v>
       </c>
       <c r="D68">
-        <v>1.8227</v>
+        <v>-0.80610000000000004</v>
       </c>
       <c r="E68">
-        <v>7.9399999999999998E-2</v>
+        <v>0.10009999999999999</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2294,19 +2288,19 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B69">
-        <v>3.6667000000000001</v>
+        <v>-1.0313000000000001</v>
       </c>
       <c r="C69">
-        <v>3.5108999999999999</v>
+        <v>-1.2432000000000001</v>
       </c>
       <c r="D69">
-        <v>3.8226</v>
+        <v>-0.81940000000000002</v>
       </c>
       <c r="E69">
-        <v>7.7899999999999997E-2</v>
+        <v>0.106</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2314,19 +2308,19 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B70">
-        <v>-3.1855000000000002</v>
+        <v>1.4129</v>
       </c>
       <c r="C70">
-        <v>-3.415</v>
+        <v>1.2567999999999999</v>
       </c>
       <c r="D70">
-        <v>-2.956</v>
+        <v>1.569</v>
       </c>
       <c r="E70">
-        <v>0.1148</v>
+        <v>7.8100000000000003E-2</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2334,19 +2328,19 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B71">
-        <v>1.5623</v>
+        <v>-1.6013999999999999</v>
       </c>
       <c r="C71">
-        <v>1.3190999999999999</v>
+        <v>-1.7677</v>
       </c>
       <c r="D71">
-        <v>1.8053999999999999</v>
+        <v>-1.4352</v>
       </c>
       <c r="E71">
-        <v>0.1216</v>
+        <v>8.3099999999999993E-2</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2354,19 +2348,19 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B72">
-        <v>1.6574</v>
+        <v>2.1797</v>
       </c>
       <c r="C72">
-        <v>1.4944</v>
+        <v>2.0206</v>
       </c>
       <c r="D72">
-        <v>1.8204</v>
+        <v>2.3386999999999998</v>
       </c>
       <c r="E72">
-        <v>8.1500000000000003E-2</v>
+        <v>7.9500000000000001E-2</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2374,19 +2368,19 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B73">
-        <v>0.53469999999999995</v>
+        <v>-0.55049999999999999</v>
       </c>
       <c r="C73">
-        <v>0.37359999999999999</v>
+        <v>-0.7298</v>
       </c>
       <c r="D73">
-        <v>0.69579999999999997</v>
+        <v>-0.37119999999999997</v>
       </c>
       <c r="E73">
-        <v>8.0600000000000005E-2</v>
+        <v>8.9700000000000002E-2</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -2394,39 +2388,39 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B74">
-        <v>-1.4718</v>
+        <v>0.1583</v>
       </c>
       <c r="C74">
-        <v>-1.6501999999999999</v>
+        <v>-6.1999999999999998E-3</v>
       </c>
       <c r="D74">
-        <v>-1.2935000000000001</v>
+        <v>0.32269999999999999</v>
       </c>
       <c r="E74">
-        <v>8.9200000000000002E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>5.4199999999999998E-2</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B75">
-        <v>-0.43669999999999998</v>
+        <v>-1.7653000000000001</v>
       </c>
       <c r="C75">
-        <v>-0.63349999999999995</v>
+        <v>-1.9231</v>
       </c>
       <c r="D75">
-        <v>-0.23980000000000001</v>
+        <v>-1.6073999999999999</v>
       </c>
       <c r="E75">
-        <v>9.8400000000000001E-2</v>
+        <v>7.8899999999999998E-2</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -2434,19 +2428,19 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B76">
-        <v>1.1324000000000001</v>
+        <v>2.0198999999999998</v>
       </c>
       <c r="C76">
-        <v>0.96650000000000003</v>
+        <v>1.8717999999999999</v>
       </c>
       <c r="D76">
-        <v>1.2982</v>
+        <v>2.1680000000000001</v>
       </c>
       <c r="E76">
-        <v>8.2900000000000001E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -2454,19 +2448,19 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B77">
-        <v>3.9948999999999999</v>
+        <v>2.0486</v>
       </c>
       <c r="C77">
-        <v>3.8485</v>
+        <v>1.8997999999999999</v>
       </c>
       <c r="D77">
-        <v>4.1413000000000002</v>
+        <v>2.1974</v>
       </c>
       <c r="E77">
-        <v>7.3200000000000001E-2</v>
+        <v>7.4399999999999994E-2</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -2474,39 +2468,39 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B78">
-        <v>-0.22689999999999999</v>
+        <v>1.4797</v>
       </c>
       <c r="C78">
-        <v>-0.3735</v>
+        <v>1.3212999999999999</v>
       </c>
       <c r="D78">
-        <v>-8.0199999999999994E-2</v>
+        <v>1.6382000000000001</v>
       </c>
       <c r="E78">
-        <v>7.3300000000000004E-2</v>
+        <v>7.9200000000000007E-2</v>
       </c>
       <c r="F78">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B79">
-        <v>0.44369999999999998</v>
+        <v>3.613</v>
       </c>
       <c r="C79">
-        <v>0.2893</v>
+        <v>3.4573999999999998</v>
       </c>
       <c r="D79">
-        <v>0.59809999999999997</v>
+        <v>3.7685</v>
       </c>
       <c r="E79">
-        <v>7.7200000000000005E-2</v>
+        <v>7.7799999999999994E-2</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2514,19 +2508,19 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B80">
-        <v>-1.1318999999999999</v>
+        <v>-3.3081</v>
       </c>
       <c r="C80">
-        <v>-1.2984</v>
+        <v>-3.5371999999999999</v>
       </c>
       <c r="D80">
-        <v>-0.96540000000000004</v>
+        <v>-3.0790000000000002</v>
       </c>
       <c r="E80">
-        <v>8.3299999999999999E-2</v>
+        <v>0.1145</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2534,39 +2528,39 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B81">
-        <v>7.6899999999999996E-2</v>
+        <v>0.69159999999999999</v>
       </c>
       <c r="C81">
-        <v>-8.14E-2</v>
+        <v>0.4486</v>
       </c>
       <c r="D81">
-        <v>0.23519999999999999</v>
+        <v>0.93459999999999999</v>
       </c>
       <c r="E81">
-        <v>7.9200000000000007E-2</v>
+        <v>0.1215</v>
       </c>
       <c r="F81">
-        <v>0.33139999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="B82">
-        <v>2.0623999999999998</v>
+        <v>1.3794999999999999</v>
       </c>
       <c r="C82">
-        <v>1.9019999999999999</v>
+        <v>1.2168000000000001</v>
       </c>
       <c r="D82">
-        <v>2.2229000000000001</v>
+        <v>1.5421</v>
       </c>
       <c r="E82">
-        <v>8.0199999999999994E-2</v>
+        <v>8.1299999999999997E-2</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2574,19 +2568,19 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B83">
-        <v>2.8109000000000002</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="C83">
-        <v>2.6393</v>
+        <v>0.26319999999999999</v>
       </c>
       <c r="D83">
-        <v>2.9826000000000001</v>
+        <v>0.58479999999999999</v>
       </c>
       <c r="E83">
-        <v>8.5800000000000001E-2</v>
+        <v>8.0399999999999999E-2</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -2594,19 +2588,19 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B84">
-        <v>-0.78859999999999997</v>
+        <v>-1.6811</v>
       </c>
       <c r="C84">
-        <v>-0.99429999999999996</v>
+        <v>-1.8591</v>
       </c>
       <c r="D84">
-        <v>-0.58289999999999997</v>
+        <v>-1.5031000000000001</v>
       </c>
       <c r="E84">
-        <v>0.10290000000000001</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -2614,39 +2608,39 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B85">
-        <v>8.9200000000000002E-2</v>
+        <v>-0.66549999999999998</v>
       </c>
       <c r="C85">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.86199999999999999</v>
       </c>
       <c r="D85">
-        <v>0.2485</v>
+        <v>-0.46899999999999997</v>
       </c>
       <c r="E85">
-        <v>7.9600000000000004E-2</v>
+        <v>9.8299999999999998E-2</v>
       </c>
       <c r="F85">
-        <v>0.26229999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B86">
-        <v>-0.84409999999999996</v>
+        <v>1.0093000000000001</v>
       </c>
       <c r="C86">
-        <v>-1.0264</v>
+        <v>0.84370000000000001</v>
       </c>
       <c r="D86">
-        <v>-0.66180000000000005</v>
+        <v>1.1748000000000001</v>
       </c>
       <c r="E86">
-        <v>9.1200000000000003E-2</v>
+        <v>8.2799999999999999E-2</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2654,39 +2648,39 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B87">
-        <v>3.7900000000000003E-2</v>
+        <v>4.0498000000000003</v>
       </c>
       <c r="C87">
-        <v>-0.14119999999999999</v>
+        <v>3.9037000000000002</v>
       </c>
       <c r="D87">
-        <v>0.21709999999999999</v>
+        <v>4.1959999999999997</v>
       </c>
       <c r="E87">
-        <v>8.9599999999999999E-2</v>
+        <v>7.3099999999999998E-2</v>
       </c>
       <c r="F87">
-        <v>0.67190000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B88">
-        <v>-4.4786000000000001</v>
+        <v>-0.48799999999999999</v>
       </c>
       <c r="C88">
-        <v>-4.7544000000000004</v>
+        <v>-0.63439999999999996</v>
       </c>
       <c r="D88">
-        <v>-4.2028999999999996</v>
+        <v>-0.34160000000000001</v>
       </c>
       <c r="E88">
-        <v>0.13789999999999999</v>
+        <v>7.3200000000000001E-2</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2694,19 +2688,19 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B89">
-        <v>-1.0992</v>
+        <v>0.34050000000000002</v>
       </c>
       <c r="C89">
-        <v>-1.3031999999999999</v>
+        <v>0.18629999999999999</v>
       </c>
       <c r="D89">
-        <v>-0.89529999999999998</v>
+        <v>0.49459999999999998</v>
       </c>
       <c r="E89">
-        <v>0.10199999999999999</v>
+        <v>7.7100000000000002E-2</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2714,19 +2708,19 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B90">
-        <v>5.3419999999999996</v>
+        <v>-1.3056000000000001</v>
       </c>
       <c r="C90">
-        <v>5.1969000000000003</v>
+        <v>-1.4718</v>
       </c>
       <c r="D90">
-        <v>5.4870999999999999</v>
+        <v>-1.1393</v>
       </c>
       <c r="E90">
-        <v>7.2599999999999998E-2</v>
+        <v>8.3099999999999993E-2</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -2734,59 +2728,59 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B91">
-        <v>-0.18959999999999999</v>
+        <v>-0.12130000000000001</v>
       </c>
       <c r="C91">
-        <v>-0.39140000000000003</v>
+        <v>-0.27929999999999999</v>
       </c>
       <c r="D91">
-        <v>1.23E-2</v>
+        <v>3.6799999999999999E-2</v>
       </c>
       <c r="E91">
-        <v>0.1009</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="F91">
-        <v>6.0299999999999999E-2</v>
+        <v>0.12479999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B92">
-        <v>0.1338</v>
+        <v>1.9117</v>
       </c>
       <c r="C92">
-        <v>-3.9600000000000003E-2</v>
+        <v>1.7515000000000001</v>
       </c>
       <c r="D92">
-        <v>0.30719999999999997</v>
+        <v>2.0718000000000001</v>
       </c>
       <c r="E92">
-        <v>8.6699999999999999E-2</v>
+        <v>8.0100000000000005E-2</v>
       </c>
       <c r="F92">
-        <v>0.1227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B93">
-        <v>4.3330000000000002</v>
+        <v>2.6844000000000001</v>
       </c>
       <c r="C93">
-        <v>4.1772</v>
+        <v>2.5129999999999999</v>
       </c>
       <c r="D93">
-        <v>4.4888000000000003</v>
+        <v>2.8557000000000001</v>
       </c>
       <c r="E93">
-        <v>7.7899999999999997E-2</v>
+        <v>8.5699999999999998E-2</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -2794,19 +2788,19 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="B94">
-        <v>3.2305000000000001</v>
+        <v>-0.9718</v>
       </c>
       <c r="C94">
-        <v>3.0834999999999999</v>
+        <v>-1.1771</v>
       </c>
       <c r="D94">
-        <v>3.3774999999999999</v>
+        <v>-0.76639999999999997</v>
       </c>
       <c r="E94">
-        <v>7.3499999999999996E-2</v>
+        <v>0.1027</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -2814,39 +2808,39 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B95">
-        <v>5.6300000000000003E-2</v>
+        <v>-4.7300000000000002E-2</v>
       </c>
       <c r="C95">
-        <v>-0.11119999999999999</v>
+        <v>-0.20619999999999999</v>
       </c>
       <c r="D95">
-        <v>0.22389999999999999</v>
+        <v>0.11169999999999999</v>
       </c>
       <c r="E95">
-        <v>8.3799999999999999E-2</v>
+        <v>7.9500000000000001E-2</v>
       </c>
       <c r="F95">
-        <v>0.50119999999999998</v>
+        <v>0.55189999999999995</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="B96">
-        <v>0.71660000000000001</v>
+        <v>-0.91959999999999997</v>
       </c>
       <c r="C96">
-        <v>0.54910000000000003</v>
+        <v>-1.1015999999999999</v>
       </c>
       <c r="D96">
-        <v>0.88400000000000001</v>
+        <v>-0.73770000000000002</v>
       </c>
       <c r="E96">
-        <v>8.3699999999999997E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -2854,39 +2848,39 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B97">
-        <v>-6.3500000000000001E-2</v>
+        <v>-0.36259999999999998</v>
       </c>
       <c r="C97">
-        <v>-0.29599999999999999</v>
+        <v>-0.54149999999999998</v>
       </c>
       <c r="D97">
-        <v>0.16889999999999999</v>
+        <v>-0.1837</v>
       </c>
       <c r="E97">
-        <v>0.1162</v>
+        <v>8.9399999999999993E-2</v>
       </c>
       <c r="F97">
-        <v>0.5847</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B98">
-        <v>-0.64849999999999997</v>
+        <v>-4.6308999999999996</v>
       </c>
       <c r="C98">
-        <v>-0.80549999999999999</v>
+        <v>-4.9061000000000003</v>
       </c>
       <c r="D98">
-        <v>-0.49149999999999999</v>
+        <v>-4.3556999999999997</v>
       </c>
       <c r="E98">
-        <v>7.85E-2</v>
+        <v>0.1376</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2894,19 +2888,19 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B99">
-        <v>-0.47549999999999998</v>
+        <v>-1.2786999999999999</v>
       </c>
       <c r="C99">
-        <v>-0.66449999999999998</v>
+        <v>-1.4823</v>
       </c>
       <c r="D99">
-        <v>-0.28660000000000002</v>
+        <v>-1.0750999999999999</v>
       </c>
       <c r="E99">
-        <v>9.4500000000000001E-2</v>
+        <v>0.1018</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -2914,19 +2908,19 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B100">
-        <v>2.0276000000000001</v>
+        <v>5.1818999999999997</v>
       </c>
       <c r="C100">
-        <v>1.8667</v>
+        <v>5.0370999999999997</v>
       </c>
       <c r="D100">
-        <v>2.1884999999999999</v>
+        <v>5.3268000000000004</v>
       </c>
       <c r="E100">
-        <v>8.0500000000000002E-2</v>
+        <v>7.2400000000000006E-2</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -2934,79 +2928,79 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B101">
-        <v>0.65190000000000003</v>
+        <v>-0.31900000000000001</v>
       </c>
       <c r="C101">
-        <v>0.49530000000000002</v>
+        <v>-0.52049999999999996</v>
       </c>
       <c r="D101">
-        <v>0.80840000000000001</v>
+        <v>-0.11749999999999999</v>
       </c>
       <c r="E101">
-        <v>7.8299999999999995E-2</v>
+        <v>0.1007</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B102">
-        <v>0.1898</v>
+        <v>-0.1033</v>
       </c>
       <c r="C102">
-        <v>2.3800000000000002E-2</v>
+        <v>-0.27629999999999999</v>
       </c>
       <c r="D102">
-        <v>0.35589999999999999</v>
+        <v>6.9800000000000001E-2</v>
       </c>
       <c r="E102">
-        <v>8.3000000000000004E-2</v>
+        <v>8.6499999999999994E-2</v>
       </c>
       <c r="F102">
-        <v>2.2200000000000001E-2</v>
+        <v>0.23269999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="B103">
-        <v>2.8199999999999999E-2</v>
+        <v>4.3289</v>
       </c>
       <c r="C103">
-        <v>-0.12839999999999999</v>
+        <v>4.1734</v>
       </c>
       <c r="D103">
-        <v>0.1847</v>
+        <v>4.4843999999999999</v>
       </c>
       <c r="E103">
-        <v>7.8299999999999995E-2</v>
+        <v>7.7799999999999994E-2</v>
       </c>
       <c r="F103">
-        <v>0.71909999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="B104">
-        <v>1.2403999999999999</v>
+        <v>3.2323</v>
       </c>
       <c r="C104">
-        <v>1.0523</v>
+        <v>3.0855999999999999</v>
       </c>
       <c r="D104">
-        <v>1.4283999999999999</v>
+        <v>3.379</v>
       </c>
       <c r="E104">
-        <v>9.4E-2</v>
+        <v>7.3400000000000007E-2</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -3014,39 +3008,39 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B105">
-        <v>-1.6734</v>
+        <v>-6.8900000000000003E-2</v>
       </c>
       <c r="C105">
-        <v>-1.8607</v>
+        <v>-0.2361</v>
       </c>
       <c r="D105">
-        <v>-1.4861</v>
+        <v>9.8299999999999998E-2</v>
       </c>
       <c r="E105">
-        <v>9.3600000000000003E-2</v>
+        <v>8.3599999999999994E-2</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>0.40989999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B106">
-        <v>-0.89</v>
+        <v>0.5524</v>
       </c>
       <c r="C106">
-        <v>-1.0497000000000001</v>
+        <v>0.38529999999999998</v>
       </c>
       <c r="D106">
-        <v>-0.73029999999999995</v>
+        <v>0.71950000000000003</v>
       </c>
       <c r="E106">
-        <v>7.9899999999999999E-2</v>
+        <v>8.3599999999999994E-2</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -3054,39 +3048,39 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B107">
-        <v>0.30590000000000001</v>
+        <v>-0.15820000000000001</v>
       </c>
       <c r="C107">
-        <v>0.13930000000000001</v>
+        <v>-0.39029999999999998</v>
       </c>
       <c r="D107">
-        <v>0.47249999999999998</v>
+        <v>7.3800000000000004E-2</v>
       </c>
       <c r="E107">
-        <v>8.3299999999999999E-2</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="F107">
-        <v>2.0000000000000001E-4</v>
+        <v>0.17269999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B108">
-        <v>4.3162000000000003</v>
+        <v>-0.82599999999999996</v>
       </c>
       <c r="C108">
-        <v>4.0556000000000001</v>
+        <v>-0.98270000000000002</v>
       </c>
       <c r="D108">
-        <v>4.5768000000000004</v>
+        <v>-0.66930000000000001</v>
       </c>
       <c r="E108">
-        <v>0.1303</v>
+        <v>7.8299999999999995E-2</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -3094,19 +3088,19 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B109">
-        <v>1.0013000000000001</v>
+        <v>-0.60750000000000004</v>
       </c>
       <c r="C109">
-        <v>0.85129999999999995</v>
+        <v>-0.79610000000000003</v>
       </c>
       <c r="D109">
-        <v>1.1514</v>
+        <v>-0.41899999999999998</v>
       </c>
       <c r="E109">
-        <v>7.4999999999999997E-2</v>
+        <v>9.4299999999999995E-2</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -3114,19 +3108,19 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="B110">
-        <v>-1.236</v>
+        <v>1.8048</v>
       </c>
       <c r="C110">
-        <v>-1.421</v>
+        <v>1.6442000000000001</v>
       </c>
       <c r="D110">
-        <v>-1.0509999999999999</v>
+        <v>1.9654</v>
       </c>
       <c r="E110">
-        <v>9.2499999999999999E-2</v>
+        <v>8.0299999999999996E-2</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -3134,19 +3128,19 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B111">
-        <v>-0.84079999999999999</v>
+        <v>0.38219999999999998</v>
       </c>
       <c r="C111">
-        <v>-1.0253000000000001</v>
+        <v>0.22589999999999999</v>
       </c>
       <c r="D111">
-        <v>-0.65620000000000001</v>
+        <v>0.53839999999999999</v>
       </c>
       <c r="E111">
-        <v>9.2299999999999993E-2</v>
+        <v>7.8100000000000003E-2</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -3154,59 +3148,59 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B112">
-        <v>-1.4431</v>
+        <v>-3.5099999999999999E-2</v>
       </c>
       <c r="C112">
-        <v>-1.6578999999999999</v>
+        <v>-0.20080000000000001</v>
       </c>
       <c r="D112">
-        <v>-1.2282</v>
+        <v>0.13070000000000001</v>
       </c>
       <c r="E112">
-        <v>0.1074</v>
+        <v>8.2900000000000001E-2</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>0.67200000000000004</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B113">
-        <v>-1.1004</v>
+        <v>-5.7000000000000002E-2</v>
       </c>
       <c r="C113">
-        <v>-1.2674000000000001</v>
+        <v>-0.21329999999999999</v>
       </c>
       <c r="D113">
-        <v>-0.93340000000000001</v>
+        <v>9.9199999999999997E-2</v>
       </c>
       <c r="E113">
-        <v>8.3500000000000005E-2</v>
+        <v>7.8100000000000003E-2</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>0.46529999999999999</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B114">
-        <v>-0.3458</v>
+        <v>0.90659999999999996</v>
       </c>
       <c r="C114">
-        <v>-0.49909999999999999</v>
+        <v>0.71879999999999999</v>
       </c>
       <c r="D114">
-        <v>-0.19239999999999999</v>
+        <v>1.0943000000000001</v>
       </c>
       <c r="E114">
-        <v>7.6700000000000004E-2</v>
+        <v>9.3899999999999997E-2</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -3214,19 +3208,19 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B115">
-        <v>-1.0771999999999999</v>
+        <v>-1.9418</v>
       </c>
       <c r="C115">
-        <v>-1.2778</v>
+        <v>-2.1288</v>
       </c>
       <c r="D115">
-        <v>-0.87660000000000005</v>
+        <v>-1.7548999999999999</v>
       </c>
       <c r="E115">
-        <v>0.1003</v>
+        <v>9.35E-2</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -3234,19 +3228,19 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B116">
-        <v>-0.54990000000000006</v>
+        <v>-0.72370000000000001</v>
       </c>
       <c r="C116">
-        <v>-0.76229999999999998</v>
+        <v>-0.88319999999999999</v>
       </c>
       <c r="D116">
-        <v>-0.33750000000000002</v>
+        <v>-0.56430000000000002</v>
       </c>
       <c r="E116">
-        <v>0.1062</v>
+        <v>7.9699999999999993E-2</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -3254,39 +3248,39 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B117">
-        <v>-0.68440000000000001</v>
+        <v>0.17630000000000001</v>
       </c>
       <c r="C117">
-        <v>-0.84119999999999995</v>
+        <v>0.01</v>
       </c>
       <c r="D117">
-        <v>-0.52769999999999995</v>
+        <v>0.34260000000000002</v>
       </c>
       <c r="E117">
-        <v>7.8399999999999997E-2</v>
+        <v>8.3099999999999993E-2</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B118">
-        <v>-2.6663000000000001</v>
+        <v>4.0774999999999997</v>
       </c>
       <c r="C118">
-        <v>-2.8332000000000002</v>
+        <v>3.8174000000000001</v>
       </c>
       <c r="D118">
-        <v>-2.4994000000000001</v>
+        <v>4.3376999999999999</v>
       </c>
       <c r="E118">
-        <v>8.3500000000000005E-2</v>
+        <v>0.13009999999999999</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -3294,19 +3288,19 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B119">
-        <v>-2.4077999999999999</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="C119">
-        <v>-2.5674000000000001</v>
+        <v>0.71819999999999995</v>
       </c>
       <c r="D119">
-        <v>-2.2482000000000002</v>
+        <v>1.0178</v>
       </c>
       <c r="E119">
-        <v>7.9799999999999996E-2</v>
+        <v>7.4899999999999994E-2</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -3314,19 +3308,19 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="B120">
-        <v>-1.1012999999999999</v>
+        <v>-1.4337</v>
       </c>
       <c r="C120">
-        <v>-1.2810999999999999</v>
+        <v>-1.6184000000000001</v>
       </c>
       <c r="D120">
-        <v>-0.9214</v>
+        <v>-1.2491000000000001</v>
       </c>
       <c r="E120">
-        <v>8.9899999999999994E-2</v>
+        <v>9.2299999999999993E-2</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -3334,19 +3328,19 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="B121">
-        <v>-2.8544</v>
+        <v>-1.0349999999999999</v>
       </c>
       <c r="C121">
-        <v>-3.0194999999999999</v>
+        <v>-1.2192000000000001</v>
       </c>
       <c r="D121">
-        <v>-2.6892</v>
+        <v>-0.85070000000000001</v>
       </c>
       <c r="E121">
-        <v>8.2600000000000007E-2</v>
+        <v>9.2100000000000001E-2</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -3354,19 +3348,19 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="B122">
-        <v>-3.1013000000000002</v>
+        <v>-1.5668</v>
       </c>
       <c r="C122">
-        <v>-3.2597999999999998</v>
+        <v>-1.7813000000000001</v>
       </c>
       <c r="D122">
-        <v>-2.9428999999999998</v>
+        <v>-1.3524</v>
       </c>
       <c r="E122">
-        <v>7.9200000000000007E-2</v>
+        <v>0.1072</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -3374,19 +3368,19 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="B123">
-        <v>-1.0733999999999999</v>
+        <v>-1.3062</v>
       </c>
       <c r="C123">
-        <v>-1.2222</v>
+        <v>-1.4729000000000001</v>
       </c>
       <c r="D123">
-        <v>-0.92459999999999998</v>
+        <v>-1.1395999999999999</v>
       </c>
       <c r="E123">
-        <v>7.4399999999999994E-2</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -3394,19 +3388,19 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="B124">
-        <v>-1.163</v>
+        <v>-0.56440000000000001</v>
       </c>
       <c r="C124">
-        <v>-1.3124</v>
+        <v>-0.71750000000000003</v>
       </c>
       <c r="D124">
-        <v>-1.0135000000000001</v>
+        <v>-0.41139999999999999</v>
       </c>
       <c r="E124">
-        <v>7.4700000000000003E-2</v>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -3414,19 +3408,19 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="B125">
-        <v>-2.3746999999999998</v>
+        <v>-1.2612000000000001</v>
       </c>
       <c r="C125">
-        <v>-2.5337000000000001</v>
+        <v>-1.4614</v>
       </c>
       <c r="D125">
-        <v>-2.2157</v>
+        <v>-1.0609999999999999</v>
       </c>
       <c r="E125">
-        <v>7.9500000000000001E-2</v>
+        <v>0.10009999999999999</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -3434,19 +3428,19 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="B126">
-        <v>5.7541000000000002</v>
+        <v>-0.77610000000000001</v>
       </c>
       <c r="C126">
-        <v>5.5983999999999998</v>
+        <v>-0.98819999999999997</v>
       </c>
       <c r="D126">
-        <v>5.9097999999999997</v>
+        <v>-0.56410000000000005</v>
       </c>
       <c r="E126">
-        <v>7.7899999999999997E-2</v>
+        <v>0.106</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -3454,39 +3448,39 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B127">
-        <v>-2.8E-3</v>
+        <v>-0.85899999999999999</v>
       </c>
       <c r="C127">
-        <v>-0.2326</v>
+        <v>-1.0154000000000001</v>
       </c>
       <c r="D127">
-        <v>0.22700000000000001</v>
+        <v>-0.70250000000000001</v>
       </c>
       <c r="E127">
-        <v>0.1149</v>
+        <v>7.8200000000000006E-2</v>
       </c>
       <c r="F127">
-        <v>0.98050000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="B128">
-        <v>-1.4145000000000001</v>
+        <v>-2.8176999999999999</v>
       </c>
       <c r="C128">
-        <v>-1.6577</v>
+        <v>-2.9843000000000002</v>
       </c>
       <c r="D128">
-        <v>-1.1713</v>
+        <v>-2.6511</v>
       </c>
       <c r="E128">
-        <v>0.1216</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -3494,19 +3488,19 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B129">
-        <v>-1.1021000000000001</v>
+        <v>-2.4245000000000001</v>
       </c>
       <c r="C129">
-        <v>-1.2653000000000001</v>
+        <v>-2.5838000000000001</v>
       </c>
       <c r="D129">
-        <v>-0.93899999999999995</v>
+        <v>-2.2652000000000001</v>
       </c>
       <c r="E129">
-        <v>8.1600000000000006E-2</v>
+        <v>7.9600000000000004E-2</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -3514,19 +3508,19 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="B130">
-        <v>-2.5709</v>
+        <v>-1.3099000000000001</v>
       </c>
       <c r="C130">
-        <v>-2.7323</v>
+        <v>-1.4895</v>
       </c>
       <c r="D130">
-        <v>-2.4096000000000002</v>
+        <v>-1.1304000000000001</v>
       </c>
       <c r="E130">
-        <v>8.0699999999999994E-2</v>
+        <v>8.9800000000000005E-2</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -3534,19 +3528,19 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="B131">
-        <v>-2.2361</v>
+        <v>-2.9897</v>
       </c>
       <c r="C131">
-        <v>-2.4146999999999998</v>
+        <v>-3.1545000000000001</v>
       </c>
       <c r="D131">
-        <v>-2.0575000000000001</v>
+        <v>-2.8249</v>
       </c>
       <c r="E131">
-        <v>8.9300000000000004E-2</v>
+        <v>8.2400000000000001E-2</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -3554,19 +3548,19 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="B132">
-        <v>-1.631</v>
+        <v>-3.2246999999999999</v>
       </c>
       <c r="C132">
-        <v>-1.8281000000000001</v>
+        <v>-3.3828</v>
       </c>
       <c r="D132">
-        <v>-1.4339</v>
+        <v>-3.0665</v>
       </c>
       <c r="E132">
-        <v>9.8500000000000004E-2</v>
+        <v>7.9100000000000004E-2</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -3574,19 +3568,19 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B133">
-        <v>1.8229</v>
+        <v>-1.2287999999999999</v>
       </c>
       <c r="C133">
-        <v>1.6576</v>
+        <v>-1.3773</v>
       </c>
       <c r="D133">
-        <v>1.9882</v>
+        <v>-1.0803</v>
       </c>
       <c r="E133">
-        <v>8.2600000000000007E-2</v>
+        <v>7.4300000000000005E-2</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -3594,19 +3588,19 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="B134">
-        <v>2.1793999999999998</v>
+        <v>-1.3147</v>
       </c>
       <c r="C134">
-        <v>2.0327000000000002</v>
+        <v>-1.4639</v>
       </c>
       <c r="D134">
-        <v>2.3260999999999998</v>
+        <v>-1.1655</v>
       </c>
       <c r="E134">
-        <v>7.3400000000000007E-2</v>
+        <v>7.46E-2</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -3614,19 +3608,19 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B135">
-        <v>-1.0739000000000001</v>
+        <v>-2.5764</v>
       </c>
       <c r="C135">
-        <v>-1.2210000000000001</v>
+        <v>-2.7351000000000001</v>
       </c>
       <c r="D135">
-        <v>-0.92689999999999995</v>
+        <v>-2.4177</v>
       </c>
       <c r="E135">
-        <v>7.3499999999999996E-2</v>
+        <v>7.9299999999999995E-2</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -3634,19 +3628,19 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="B136">
-        <v>1.7957000000000001</v>
+        <v>5.6416000000000004</v>
       </c>
       <c r="C136">
-        <v>1.6415</v>
+        <v>5.4862000000000002</v>
       </c>
       <c r="D136">
-        <v>1.9499</v>
+        <v>5.7971000000000004</v>
       </c>
       <c r="E136">
-        <v>7.7100000000000002E-2</v>
+        <v>7.7700000000000005E-2</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -3654,39 +3648,39 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="B137">
-        <v>-1.6451</v>
+        <v>-0.1321</v>
       </c>
       <c r="C137">
-        <v>-1.8120000000000001</v>
+        <v>-0.36149999999999999</v>
       </c>
       <c r="D137">
-        <v>-1.4782999999999999</v>
+        <v>9.7299999999999998E-2</v>
       </c>
       <c r="E137">
-        <v>8.3400000000000002E-2</v>
+        <v>0.1147</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>0.24940000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="B138">
-        <v>-1.5477000000000001</v>
+        <v>-2.2759</v>
       </c>
       <c r="C138">
-        <v>-1.7064999999999999</v>
+        <v>-2.5190000000000001</v>
       </c>
       <c r="D138">
-        <v>-1.389</v>
+        <v>-2.0327999999999999</v>
       </c>
       <c r="E138">
-        <v>7.9399999999999998E-2</v>
+        <v>0.1215</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -3694,19 +3688,19 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="B139">
-        <v>-1.8862000000000001</v>
+        <v>-1.4035</v>
       </c>
       <c r="C139">
-        <v>-2.0470000000000002</v>
+        <v>-1.5664</v>
       </c>
       <c r="D139">
-        <v>-1.7254</v>
+        <v>-1.2405999999999999</v>
       </c>
       <c r="E139">
-        <v>8.0399999999999999E-2</v>
+        <v>8.1500000000000003E-2</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -3714,19 +3708,19 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B140">
-        <v>-0.63200000000000001</v>
+        <v>-2.7197</v>
       </c>
       <c r="C140">
-        <v>-0.80389999999999995</v>
+        <v>-2.8807999999999998</v>
       </c>
       <c r="D140">
-        <v>-0.46010000000000001</v>
+        <v>-2.5587</v>
       </c>
       <c r="E140">
-        <v>8.5999999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -3734,19 +3728,19 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="B141">
-        <v>-1.6795</v>
+        <v>-2.4441000000000002</v>
       </c>
       <c r="C141">
-        <v>-1.8853</v>
+        <v>-2.6223999999999998</v>
       </c>
       <c r="D141">
-        <v>-1.4737</v>
+        <v>-2.2658</v>
       </c>
       <c r="E141">
-        <v>0.10290000000000001</v>
+        <v>8.9099999999999999E-2</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -3754,19 +3748,19 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="B142">
-        <v>-2.0777000000000001</v>
+        <v>-1.8498000000000001</v>
       </c>
       <c r="C142">
-        <v>-2.2372000000000001</v>
+        <v>-2.0465</v>
       </c>
       <c r="D142">
-        <v>-1.9180999999999999</v>
+        <v>-1.6531</v>
       </c>
       <c r="E142">
-        <v>7.9799999999999996E-2</v>
+        <v>9.8400000000000001E-2</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -3774,19 +3768,19 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="B143">
-        <v>-2.5163000000000002</v>
+        <v>1.6181000000000001</v>
       </c>
       <c r="C143">
-        <v>-2.6987999999999999</v>
+        <v>1.4531000000000001</v>
       </c>
       <c r="D143">
-        <v>-2.3336999999999999</v>
+        <v>1.7829999999999999</v>
       </c>
       <c r="E143">
-        <v>9.1300000000000006E-2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -3794,39 +3788,39 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="B144">
-        <v>-0.22700000000000001</v>
+        <v>2.2170999999999998</v>
       </c>
       <c r="C144">
-        <v>-0.40660000000000002</v>
+        <v>2.0707</v>
       </c>
       <c r="D144">
-        <v>-4.7500000000000001E-2</v>
+        <v>2.3635999999999999</v>
       </c>
       <c r="E144">
-        <v>8.9800000000000005E-2</v>
+        <v>7.3200000000000001E-2</v>
       </c>
       <c r="F144">
-        <v>1.14E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="B145">
-        <v>-2.5950000000000002</v>
+        <v>-1.3391</v>
       </c>
       <c r="C145">
-        <v>-2.8673000000000002</v>
+        <v>-1.4859</v>
       </c>
       <c r="D145">
-        <v>-2.3226</v>
+        <v>-1.1922999999999999</v>
       </c>
       <c r="E145">
-        <v>0.13619999999999999</v>
+        <v>7.3400000000000007E-2</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -3834,19 +3828,19 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="B146">
-        <v>-1.2768999999999999</v>
+        <v>1.637</v>
       </c>
       <c r="C146">
-        <v>-1.4810000000000001</v>
+        <v>1.4831000000000001</v>
       </c>
       <c r="D146">
-        <v>-1.0728</v>
+        <v>1.7908999999999999</v>
       </c>
       <c r="E146">
-        <v>0.10199999999999999</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -3854,19 +3848,19 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B147">
-        <v>2.4523000000000001</v>
+        <v>-1.8137000000000001</v>
       </c>
       <c r="C147">
-        <v>2.3069000000000002</v>
+        <v>-1.9802999999999999</v>
       </c>
       <c r="D147">
-        <v>2.5977000000000001</v>
+        <v>-1.6472</v>
       </c>
       <c r="E147">
-        <v>7.2700000000000001E-2</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -3874,19 +3868,19 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="B148">
-        <v>-1.4213</v>
+        <v>-1.7436</v>
       </c>
       <c r="C148">
-        <v>-1.6234</v>
+        <v>-1.9020999999999999</v>
       </c>
       <c r="D148">
-        <v>-1.2192000000000001</v>
+        <v>-1.5851999999999999</v>
       </c>
       <c r="E148">
-        <v>0.10100000000000001</v>
+        <v>7.9200000000000007E-2</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -3894,19 +3888,19 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="B149">
-        <v>0.74529999999999996</v>
+        <v>-2.0449000000000002</v>
       </c>
       <c r="C149">
-        <v>0.5716</v>
+        <v>-2.2054999999999998</v>
       </c>
       <c r="D149">
-        <v>0.91900000000000004</v>
+        <v>-1.8844000000000001</v>
       </c>
       <c r="E149">
-        <v>8.6800000000000002E-2</v>
+        <v>8.0299999999999996E-2</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -3914,19 +3908,19 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B150">
-        <v>1.3475999999999999</v>
+        <v>-0.77710000000000001</v>
       </c>
       <c r="C150">
-        <v>1.1918</v>
+        <v>-0.94869999999999999</v>
       </c>
       <c r="D150">
-        <v>1.5033000000000001</v>
+        <v>-0.60550000000000004</v>
       </c>
       <c r="E150">
-        <v>7.7899999999999997E-2</v>
+        <v>8.5800000000000001E-2</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -3934,19 +3928,19 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="B151">
-        <v>0.92500000000000004</v>
+        <v>-1.8662000000000001</v>
       </c>
       <c r="C151">
-        <v>0.77759999999999996</v>
+        <v>-2.0716999999999999</v>
       </c>
       <c r="D151">
-        <v>1.0724</v>
+        <v>-1.6608000000000001</v>
       </c>
       <c r="E151">
-        <v>7.3700000000000002E-2</v>
+        <v>0.1027</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -3954,19 +3948,19 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="B152">
-        <v>-1.9608000000000001</v>
+        <v>-2.2342</v>
       </c>
       <c r="C152">
-        <v>-2.1288999999999998</v>
+        <v>-2.3935</v>
       </c>
       <c r="D152">
-        <v>-1.7927999999999999</v>
+        <v>-2.0749</v>
       </c>
       <c r="E152">
-        <v>8.4000000000000005E-2</v>
+        <v>7.9600000000000004E-2</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -3974,19 +3968,19 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="B153">
-        <v>-0.77710000000000001</v>
+        <v>-2.5722</v>
       </c>
       <c r="C153">
-        <v>-0.94489999999999996</v>
+        <v>-2.7544</v>
       </c>
       <c r="D153">
-        <v>-0.60929999999999995</v>
+        <v>-2.39</v>
       </c>
       <c r="E153">
-        <v>8.3900000000000002E-2</v>
+        <v>9.11E-2</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -3994,19 +3988,19 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="B154">
-        <v>-2.1322999999999999</v>
+        <v>-0.62890000000000001</v>
       </c>
       <c r="C154">
-        <v>-2.3650000000000002</v>
+        <v>-0.80820000000000003</v>
       </c>
       <c r="D154">
-        <v>-1.8996999999999999</v>
+        <v>-0.44969999999999999</v>
       </c>
       <c r="E154">
-        <v>0.1163</v>
+        <v>8.9599999999999999E-2</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -4014,19 +4008,19 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="B155">
-        <v>-0.78039999999999998</v>
+        <v>-2.7267999999999999</v>
       </c>
       <c r="C155">
-        <v>-0.93769999999999998</v>
+        <v>-2.9986999999999999</v>
       </c>
       <c r="D155">
-        <v>-0.623</v>
+        <v>-2.4548999999999999</v>
       </c>
       <c r="E155">
-        <v>7.8700000000000006E-2</v>
+        <v>0.13589999999999999</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -4034,19 +4028,19 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="B156">
-        <v>-1.1173999999999999</v>
+        <v>-1.4535</v>
       </c>
       <c r="C156">
-        <v>-1.3063</v>
+        <v>-1.6572</v>
       </c>
       <c r="D156">
-        <v>-0.92859999999999998</v>
+        <v>-1.2498</v>
       </c>
       <c r="E156">
-        <v>9.4399999999999998E-2</v>
+        <v>0.1019</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -4054,19 +4048,19 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="B157">
-        <v>1.4845999999999999</v>
+        <v>2.2726000000000002</v>
       </c>
       <c r="C157">
-        <v>1.3232999999999999</v>
+        <v>2.1274999999999999</v>
       </c>
       <c r="D157">
-        <v>1.6458999999999999</v>
+        <v>2.4178000000000002</v>
       </c>
       <c r="E157">
-        <v>8.0699999999999994E-2</v>
+        <v>7.2599999999999998E-2</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -4074,19 +4068,19 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B158">
-        <v>1.6919</v>
+        <v>-1.5404</v>
       </c>
       <c r="C158">
-        <v>1.5350999999999999</v>
+        <v>-1.7421</v>
       </c>
       <c r="D158">
-        <v>1.8488</v>
+        <v>-1.3387</v>
       </c>
       <c r="E158">
-        <v>7.8399999999999997E-2</v>
+        <v>0.1009</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -4094,59 +4088,59 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="B159">
-        <v>8.77E-2</v>
+        <v>0.5232</v>
       </c>
       <c r="C159">
-        <v>-7.8700000000000006E-2</v>
+        <v>0.3498</v>
       </c>
       <c r="D159">
-        <v>0.25409999999999999</v>
+        <v>0.6966</v>
       </c>
       <c r="E159">
-        <v>8.3199999999999996E-2</v>
+        <v>8.6699999999999999E-2</v>
       </c>
       <c r="F159">
-        <v>0.29160000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="B160">
-        <v>-0.1578</v>
+        <v>1.2968999999999999</v>
       </c>
       <c r="C160">
-        <v>-0.31459999999999999</v>
+        <v>1.1415</v>
       </c>
       <c r="D160">
-        <v>-1E-3</v>
+        <v>1.4523999999999999</v>
       </c>
       <c r="E160">
-        <v>7.8399999999999997E-2</v>
+        <v>7.7700000000000005E-2</v>
       </c>
       <c r="F160">
-        <v>4.4200000000000003E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="B161">
-        <v>1.2306999999999999</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="C161">
-        <v>1.0423</v>
+        <v>0.77190000000000003</v>
       </c>
       <c r="D161">
-        <v>1.419</v>
+        <v>1.0661</v>
       </c>
       <c r="E161">
-        <v>9.4200000000000006E-2</v>
+        <v>7.3599999999999999E-2</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -4154,19 +4148,19 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="B162">
-        <v>-3.0287000000000002</v>
+        <v>-2.0958000000000001</v>
       </c>
       <c r="C162">
-        <v>-3.2162000000000002</v>
+        <v>-2.2635000000000001</v>
       </c>
       <c r="D162">
-        <v>-2.8411</v>
+        <v>-1.9280999999999999</v>
       </c>
       <c r="E162">
-        <v>9.3799999999999994E-2</v>
+        <v>8.3900000000000002E-2</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -4174,19 +4168,19 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="B163">
-        <v>-2.3765000000000001</v>
+        <v>-0.94220000000000004</v>
       </c>
       <c r="C163">
-        <v>-2.5367000000000002</v>
+        <v>-1.1096999999999999</v>
       </c>
       <c r="D163">
-        <v>-2.2164000000000001</v>
+        <v>-0.77470000000000006</v>
       </c>
       <c r="E163">
-        <v>8.0100000000000005E-2</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -4194,19 +4188,19 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="B164">
-        <v>-0.90190000000000003</v>
+        <v>-2.2185000000000001</v>
       </c>
       <c r="C164">
-        <v>-1.0688</v>
+        <v>-2.4506999999999999</v>
       </c>
       <c r="D164">
-        <v>-0.73499999999999999</v>
+        <v>-1.9862</v>
       </c>
       <c r="E164">
-        <v>8.3500000000000005E-2</v>
+        <v>0.11609999999999999</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -4214,19 +4208,19 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="B165">
-        <v>-0.84970000000000001</v>
+        <v>-0.95660000000000001</v>
       </c>
       <c r="C165">
-        <v>-0.88660000000000005</v>
+        <v>-1.1135999999999999</v>
       </c>
       <c r="D165">
-        <v>-0.81279999999999997</v>
+        <v>-0.79949999999999999</v>
       </c>
       <c r="E165">
-        <v>1.8499999999999999E-2</v>
+        <v>7.85E-2</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -4234,19 +4228,19 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="B166">
-        <v>1.4638</v>
+        <v>-1.2323</v>
       </c>
       <c r="C166">
-        <v>1.4319</v>
+        <v>-1.4208000000000001</v>
       </c>
       <c r="D166">
-        <v>1.4957</v>
+        <v>-1.0438000000000001</v>
       </c>
       <c r="E166">
-        <v>1.5900000000000001E-2</v>
+        <v>9.4200000000000006E-2</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -4254,19 +4248,19 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="B167">
-        <v>2.4279000000000002</v>
+        <v>1.2575000000000001</v>
       </c>
       <c r="C167">
-        <v>2.3668</v>
+        <v>1.0965</v>
       </c>
       <c r="D167">
-        <v>2.4889999999999999</v>
+        <v>1.4185000000000001</v>
       </c>
       <c r="E167">
-        <v>3.0499999999999999E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -4274,19 +4268,19 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B168">
-        <v>3.5762999999999998</v>
+        <v>1.4111</v>
       </c>
       <c r="C168">
-        <v>3.3151000000000002</v>
+        <v>1.2544999999999999</v>
       </c>
       <c r="D168">
-        <v>3.8374999999999999</v>
+        <v>1.5677000000000001</v>
       </c>
       <c r="E168">
-        <v>0.13059999999999999</v>
+        <v>7.8299999999999995E-2</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -4294,59 +4288,59 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B169">
-        <v>5.5366</v>
+        <v>-0.1386</v>
       </c>
       <c r="C169">
-        <v>5.49</v>
+        <v>-0.30470000000000003</v>
       </c>
       <c r="D169">
-        <v>5.5831999999999997</v>
+        <v>2.7400000000000001E-2</v>
       </c>
       <c r="E169">
-        <v>2.3300000000000001E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="B170">
-        <v>2.9348000000000001</v>
+        <v>-0.2606</v>
       </c>
       <c r="C170">
-        <v>2.3548</v>
+        <v>-0.41710000000000003</v>
       </c>
       <c r="D170">
-        <v>3.5148000000000001</v>
+        <v>-0.1041</v>
       </c>
       <c r="E170">
-        <v>0.28999999999999998</v>
+        <v>7.8299999999999995E-2</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="B171">
-        <v>-1.1380999999999999</v>
+        <v>0.9052</v>
       </c>
       <c r="C171">
-        <v>-1.175</v>
+        <v>0.71719999999999995</v>
       </c>
       <c r="D171">
-        <v>-1.1012</v>
+        <v>1.0931999999999999</v>
       </c>
       <c r="E171">
-        <v>1.8499999999999999E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -4354,19 +4348,19 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="B172">
-        <v>1.2361</v>
+        <v>-3.3170999999999999</v>
       </c>
       <c r="C172">
-        <v>1.2042999999999999</v>
+        <v>-3.5043000000000002</v>
       </c>
       <c r="D172">
-        <v>1.268</v>
+        <v>-3.1299000000000001</v>
       </c>
       <c r="E172">
-        <v>1.5900000000000001E-2</v>
+        <v>9.3600000000000003E-2</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -4374,19 +4368,19 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="B173">
-        <v>1.6101000000000001</v>
+        <v>-2.2221000000000002</v>
       </c>
       <c r="C173">
-        <v>1.5490999999999999</v>
+        <v>-2.3818999999999999</v>
       </c>
       <c r="D173">
-        <v>1.6711</v>
+        <v>-2.0621999999999998</v>
       </c>
       <c r="E173">
-        <v>3.0499999999999999E-2</v>
+        <v>7.9899999999999999E-2</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -4394,19 +4388,19 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="B174">
-        <v>1.319</v>
+        <v>-1.026</v>
       </c>
       <c r="C174">
-        <v>1.0577000000000001</v>
+        <v>-1.1926000000000001</v>
       </c>
       <c r="D174">
-        <v>1.5803</v>
+        <v>-0.85940000000000005</v>
       </c>
       <c r="E174">
-        <v>0.13059999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -4414,19 +4408,19 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B175">
-        <v>3.6621999999999999</v>
+        <v>-0.37009999999999998</v>
       </c>
       <c r="C175">
-        <v>3.6156999999999999</v>
+        <v>-0.4078</v>
       </c>
       <c r="D175">
-        <v>3.7086999999999999</v>
+        <v>-0.33239999999999997</v>
       </c>
       <c r="E175">
-        <v>2.3300000000000001E-2</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -4434,19 +4428,19 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B176">
-        <v>2.4889000000000001</v>
+        <v>1.3883000000000001</v>
       </c>
       <c r="C176">
-        <v>1.9085000000000001</v>
+        <v>1.3565</v>
       </c>
       <c r="D176">
-        <v>3.0691999999999999</v>
+        <v>1.4200999999999999</v>
       </c>
       <c r="E176">
-        <v>0.29020000000000001</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -4454,19 +4448,19 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B177">
-        <v>-0.61070000000000002</v>
+        <v>2.4182000000000001</v>
       </c>
       <c r="C177">
-        <v>-0.7026</v>
+        <v>2.3572000000000002</v>
       </c>
       <c r="D177">
-        <v>-0.51870000000000005</v>
+        <v>2.4792000000000001</v>
       </c>
       <c r="E177">
-        <v>4.5999999999999999E-2</v>
+        <v>3.0499999999999999E-2</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -4474,19 +4468,19 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B178">
-        <v>-0.50149999999999995</v>
+        <v>3.524</v>
       </c>
       <c r="C178">
-        <v>-0.56230000000000002</v>
+        <v>3.2633000000000001</v>
       </c>
       <c r="D178">
-        <v>-0.44059999999999999</v>
+        <v>3.7848000000000002</v>
       </c>
       <c r="E178">
-        <v>3.04E-2</v>
+        <v>0.13039999999999999</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -4494,25 +4488,226 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
+        <v>187</v>
+      </c>
+      <c r="B179">
+        <v>5.4897</v>
+      </c>
+      <c r="C179">
+        <v>5.4432</v>
+      </c>
+      <c r="D179">
+        <v>5.5362</v>
+      </c>
+      <c r="E179">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" t="s">
+        <v>188</v>
+      </c>
+      <c r="B180">
+        <v>3.1766000000000001</v>
+      </c>
+      <c r="C180">
+        <v>2.5977000000000001</v>
+      </c>
+      <c r="D180">
+        <v>3.7555000000000001</v>
+      </c>
+      <c r="E180">
+        <v>0.28949999999999998</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" t="s">
+        <v>189</v>
+      </c>
+      <c r="B181">
+        <v>-0.66100000000000003</v>
+      </c>
+      <c r="C181">
+        <v>-0.69869999999999999</v>
+      </c>
+      <c r="D181">
+        <v>-0.62329999999999997</v>
+      </c>
+      <c r="E181">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" t="s">
+        <v>190</v>
+      </c>
+      <c r="B182">
+        <v>1.1597999999999999</v>
+      </c>
+      <c r="C182">
+        <v>1.1279999999999999</v>
+      </c>
+      <c r="D182">
+        <v>1.1916</v>
+      </c>
+      <c r="E182">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" t="s">
         <v>191</v>
       </c>
-      <c r="B179">
-        <v>0.83740000000000003</v>
-      </c>
-      <c r="C179">
-        <v>0.70879999999999999</v>
-      </c>
-      <c r="D179">
-        <v>0.96609999999999996</v>
-      </c>
-      <c r="E179">
-        <v>6.4299999999999996E-2</v>
-      </c>
-      <c r="F179">
+      <c r="B183">
+        <v>1.5832999999999999</v>
+      </c>
+      <c r="C183">
+        <v>1.5224</v>
+      </c>
+      <c r="D183">
+        <v>1.6442000000000001</v>
+      </c>
+      <c r="E183">
+        <v>3.0499999999999999E-2</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" t="s">
+        <v>192</v>
+      </c>
+      <c r="B184">
+        <v>1.2690999999999999</v>
+      </c>
+      <c r="C184">
+        <v>1.0083</v>
+      </c>
+      <c r="D184">
+        <v>1.5299</v>
+      </c>
+      <c r="E184">
+        <v>0.13039999999999999</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" t="s">
+        <v>193</v>
+      </c>
+      <c r="B185">
+        <v>3.6093000000000002</v>
+      </c>
+      <c r="C185">
+        <v>3.5628000000000002</v>
+      </c>
+      <c r="D185">
+        <v>3.6556999999999999</v>
+      </c>
+      <c r="E185">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" t="s">
+        <v>194</v>
+      </c>
+      <c r="B186">
+        <v>2.7320000000000002</v>
+      </c>
+      <c r="C186">
+        <v>2.1528</v>
+      </c>
+      <c r="D186">
+        <v>3.3113000000000001</v>
+      </c>
+      <c r="E186">
+        <v>0.28960000000000002</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" t="s">
+        <v>167</v>
+      </c>
+      <c r="B187">
+        <v>-0.52500000000000002</v>
+      </c>
+      <c r="C187">
+        <v>-0.61680000000000001</v>
+      </c>
+      <c r="D187">
+        <v>-0.43319999999999997</v>
+      </c>
+      <c r="E187">
+        <v>4.5900000000000003E-2</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" t="s">
+        <v>168</v>
+      </c>
+      <c r="B188">
+        <v>-0.36630000000000001</v>
+      </c>
+      <c r="C188">
+        <v>-0.42709999999999998</v>
+      </c>
+      <c r="D188">
+        <v>-0.30549999999999999</v>
+      </c>
+      <c r="E188">
+        <v>3.04E-2</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" t="s">
+        <v>169</v>
+      </c>
+      <c r="B189">
+        <v>0.83220000000000005</v>
+      </c>
+      <c r="C189">
+        <v>0.70369999999999999</v>
+      </c>
+      <c r="D189">
+        <v>0.96060000000000001</v>
+      </c>
+      <c r="E189">
+        <v>6.4199999999999993E-2</v>
+      </c>
+      <c r="F189">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>